--- a/data/case1/11/P1_13.xlsx
+++ b/data/case1/11/P1_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.069095911913564123</v>
+        <v>0.072935418983419709</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996037283267</v>
+        <v>-0.0099999998058351025</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999996080756262</v>
+        <v>-0.0089999998079921539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.28399294122913332</v>
+        <v>0.28399666268001056</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996198252248</v>
+        <v>-0.005999999813606216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999996050770221</v>
+        <v>-0.018952780189358975</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999528922174</v>
+        <v>-0.01999999977355138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999525888157</v>
+        <v>-0.019999999772341681</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995982611409</v>
+        <v>0.041757753573159029</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995962485286</v>
+        <v>-0.005999999801673539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999996041816814</v>
+        <v>-0.0036587343559162377</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.005999999595812433</v>
+        <v>-0.0059999998009017119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995951987017</v>
+        <v>-0.0059999997977842057</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999563118813</v>
+        <v>-0.01199999978266586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995959261199</v>
+        <v>-0.0059999997961535101</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.034387475263980782</v>
+        <v>-0.0059999997954944817</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995954544971</v>
+        <v>-0.0059999997946142969</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.008999999578903406</v>
+        <v>-0.0089999997873313475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999996086480571</v>
+        <v>-0.008999999807828285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999604082376</v>
+        <v>-0.034852927946737111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999996032581464</v>
+        <v>-0.0089999998041010443</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.015705087646983529</v>
+        <v>-0.0089999998039242968</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999604609954</v>
+        <v>-0.0089999998063632347</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.0419999994210567</v>
+        <v>-0.041999999725328863</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999417690503</v>
+        <v>-0.041999999723906889</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0069855901070816628</v>
+        <v>-0.0059999998064768079</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999996003181622</v>
+        <v>-0.0059999998055442205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.022248448624640815</v>
+        <v>-0.0059999998014701461</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999551571605</v>
+        <v>-0.011999999784750415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.023650309465163222</v>
+        <v>-0.019373731137035666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999528290786</v>
+        <v>-0.014999999774449435</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999495411537</v>
+        <v>-0.02099999975994038</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999995756410129</v>
+        <v>-0.0059999997953248396</v>
       </c>
     </row>
   </sheetData>
